--- a/assets/results/AZ_result.xlsx
+++ b/assets/results/AZ_result.xlsx
@@ -7,14 +7,28 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Apache County" sheetId="1" r:id="rId1"/>
+    <sheet name="Cochise County" sheetId="2" r:id="rId2"/>
+    <sheet name="Coconino County" sheetId="3" r:id="rId3"/>
+    <sheet name="Gila County" sheetId="4" r:id="rId4"/>
+    <sheet name="Graham County" sheetId="5" r:id="rId5"/>
+    <sheet name="Greenlee County" sheetId="6" r:id="rId6"/>
+    <sheet name="La Paz County" sheetId="7" r:id="rId7"/>
+    <sheet name="Maricopa County" sheetId="8" r:id="rId8"/>
+    <sheet name="Mohave County" sheetId="9" r:id="rId9"/>
+    <sheet name="Navajo County" sheetId="10" r:id="rId10"/>
+    <sheet name="Pima County" sheetId="11" r:id="rId11"/>
+    <sheet name="Pinal County" sheetId="12" r:id="rId12"/>
+    <sheet name="Santa Cruz County" sheetId="13" r:id="rId13"/>
+    <sheet name="Yavapai County" sheetId="14" r:id="rId14"/>
+    <sheet name="Yuma County" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="84">
   <si>
     <t>question</t>
   </si>
@@ -175,13 +189,97 @@
     <t>Ratio of Native Americans to whites with health insurance</t>
   </si>
   <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Apache County</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Cochise County</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Coconino County</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>Gila County</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>Graham County</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>Greenlee County</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>La Paz County</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>Maricopa County</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>Mohave County</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>Navajo County</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>Pima County</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>Pinal County</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>Santa Cruz County</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>Yavapai County</t>
+  </si>
+  <si>
     <t>027</t>
   </si>
   <si>
     <t>Yuma County</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
 </sst>
 </file>
@@ -583,7 +681,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>211931</v>
+        <v>71714</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -594,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>64843</v>
+        <v>12993</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -605,7 +703,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>4611</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -616,7 +714,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>3104</v>
+        <v>52565</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -627,7 +725,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>2534</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -638,7 +736,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>135779</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -649,7 +747,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>90181</v>
+        <v>20946</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -660,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>38.8</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -671,7 +769,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>39.6</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -682,7 +780,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>61.5</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -693,7 +791,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>66</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -704,7 +802,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>64.2</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -715,7 +813,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>1.020618556701031</v>
+        <v>0.8302752293577982</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -726,7 +824,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>4.940721649484536</v>
+        <v>3.392201834862385</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -737,7 +835,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>19846</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -759,7 +857,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>289.1361737677527</v>
+        <v>4799.085131019207</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -770,7 +868,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>1099.054013875124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -781,7 +879,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>601.6293027360988</v>
+        <v>137.0648148148148</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -792,7 +890,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>86692.44703355157</v>
+        <v>2494.97322011757</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -803,7 +901,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.02199861892078524</v>
+        <v>1.866700977869274</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -814,7 +912,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>6.305415803492157</v>
+        <v>0.9454451878538342</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -825,7 +923,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>27476</v>
+        <v>31486</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -836,7 +934,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>36955</v>
+        <v>36381</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -847,7 +945,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>29267</v>
+        <v>21893</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -858,7 +956,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>21675</v>
+        <v>30581</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -869,7 +967,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>28630</v>
+        <v>57500</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -880,7 +978,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>25628</v>
+        <v>26579</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -891,7 +989,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>20799</v>
+        <v>5705</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -913,7 +1011,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>19.7</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -924,7 +1022,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>12.1</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -935,7 +1033,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>42.7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -946,7 +1044,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>10.9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -968,7 +1066,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>18.2</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -979,7 +1077,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>11.5</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -990,7 +1088,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>19.2</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1001,7 +1099,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>39.8</v>
+        <v>40.7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1012,7 +1110,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>7.5</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1023,7 +1121,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>21.3</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1034,7 +1132,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>3.460869565217391</v>
+        <v>3.282258064516129</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1045,7 +1143,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>87.40000000000001</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1056,7 +1154,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>94.3</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1067,7 +1165,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>83.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1078,7 +1176,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>81.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1089,7 +1187,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1100,7 +1198,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>84.2</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1111,7 +1209,8155 @@
         <v>52</v>
       </c>
       <c r="C52">
+        <v>0.7285407725321889</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>110271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>45785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>48401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>12881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>38826</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.9126819126819127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.893970893970894</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>11045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>5104.054936854191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>84.08815426997245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>149.6859688195991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>6229.798988195615</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.55912342109268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.6861969258864709</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>27269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>29961</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>8926</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>26420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>25930</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>11588</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>36.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>38.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.936</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>91.40000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9244444444444445</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1038476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>531144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>36441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>37350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>30086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>389875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>491825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.073170731707317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.596622889305816</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>171042</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>3817.958770933863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>6896.061083057635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>9784.958052861761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>245721.9797711014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.02348405187521907</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1.589041319215188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>30562</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>35841</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>25845</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>24336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>32034</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>25842</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>235332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.910714285714286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>91.09999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>95.09999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.8622502628811778</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>447559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>251708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>20151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>21226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>7366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>136381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>181066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.064516129032258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.591397849462366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>51762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>1906.614279467799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>3279.81442915582</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>1573.453418074717</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>82040.54961553287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.03828846819501025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1.685544638815667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>33606</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>38317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>31755</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>27039</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>33606</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>30068</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>65075</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>33.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>3.210526315789474</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>94.59999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>88.09999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.8356456776947705</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>46594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>7015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>38792</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>19579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>33.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.231920199501247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.650872817955112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>4672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>8.684014869888475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>27.72277227722772</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>22498.280945758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.003248071457572067</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>6.77791311408851</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>26741</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>34965</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>28413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>26010</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>6209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>34.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>3.663157894736842</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>94.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>94.59999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.8954593453009503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>232396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>186181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>34110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>95765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.068281938325991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.918502202643172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>28326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>231.1783783783784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>272.3380073800738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>655.7241379310345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>23166.32275456439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.006874194430340194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.681716986290669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>28362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>30438</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>28675</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>16365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>35354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>25168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>47221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>35.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>3.025423728813559</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>86.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>83.90000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.8638344226579521</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>211931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>64843</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>135779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>90181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>38.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.020618556701031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>4.940721649484536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>19846</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>289.1361737677527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>1099.054013875124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>601.6293027360988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>86692.44703355157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.02199861892078524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>6.305415803492157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>27476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>36955</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>29267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>21675</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>28630</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>25628</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>20799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>39.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>3.460869565217391</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>87.40000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>81.40000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
         <v>0.863202545068929</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>126442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>69095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>5158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>44858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>51319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>40.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.8514644351464437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.198744769874477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>16198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>155.9699749791493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>835.3871532116971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>417.4401473296501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>23993.08169804986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.01108897167114268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1.607381096768604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>30238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>33408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>28618</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>24983</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>31581</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>26435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>22581</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>33.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.543859649122807</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>93.40000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>93.40000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>90.40000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9710920770877944</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>142254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>76544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>37159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>20441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>71789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.8909952606635071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.897314375987361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>24537</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>4406.706535544507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>105.6383342840844</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>790.1560283687943</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>13729.33298006227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.1751996997801962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.5858575028145606</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>25701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>27301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>9648</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>25631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>22192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>21853</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>31726</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.038461538461538</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>88.90000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>92.90000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>80.09999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>95.40000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.8631465517241379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>53846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>33305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>8665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>10252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>20584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.191489361702128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>4.153664302600473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>6206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>835.0755540631296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>125.8978978978979</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>5908.767935871743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.1169042769857434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.8977596741344196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>29827</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>32532</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>11528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>23797</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>19318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>29765</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>7634</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>3.188811188811189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>89.90000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>93.09999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9477124183006537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>38304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>19492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>4814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>12683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>14387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>74.59999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.9709543568464729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.099585062240663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>339.1522561863173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>14.53191489361702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>106.7407407407407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>6763.733879437093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.09505106048703849</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>2.030243519245876</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>27142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>31260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>13750</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>19916</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>75827</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>25592</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.312138728323699</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>92.59999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>81.59999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>93.90000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.8634920634920634</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>9465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>78.09999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.219047619047619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.683809523809523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>13.104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>20.43795620437956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>3317.676328502416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.01378254211332312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>3.785604900459418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>48353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>68125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>40854</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.171974522292994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9558974358974359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>21035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>12028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>5825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>6792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>66.90000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>2.447826086956522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>8.356521739130436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>315.9066183136899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>40.5940594059406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>40.7682119205298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>4390.566479400749</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.2325819672131147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>3.377049180327869</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>26920</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>26892</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>33831</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>30362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>24483</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>26408</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.434285714285714</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.8115468409586057</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4412779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2407398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>249691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>85061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>187298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1374312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>2248971</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>69.09999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.069918699186992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.341463414634146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>826389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>14007.11021567988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>49203.26316294083</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>72282.45379735649</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>1005316.660770915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.01747620813249289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1.320143369175627</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>36982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>43564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>32051</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>29052</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>49750</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>28774</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>986590</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.695121951219513</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>89.09999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>93.90000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>93.40000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.825346112886049</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>210998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>161829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>35276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>80309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.454106280193237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>4.07487922705314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>19484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>300.1719223771983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>196.2338152105594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>1049.287920072661</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>21448.40393680003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.01428660552748144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1.073304635348431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>28812</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>30181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>26901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>26389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>51735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>25201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>21749</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.134228187919463</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>90.59999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>85.59999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>84.40000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9324618736383442</v>
       </c>
     </row>
   </sheetData>
